--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adm-Ramp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adm-Ramp2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.727457666666666</v>
+        <v>15.89577633333333</v>
       </c>
       <c r="H2">
-        <v>23.182373</v>
+        <v>47.687329</v>
       </c>
       <c r="I2">
-        <v>0.1630271452636819</v>
+        <v>0.286059172443548</v>
       </c>
       <c r="J2">
-        <v>0.1630271452636819</v>
+        <v>0.2860591724435479</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.72315433333333</v>
+        <v>54.11233133333334</v>
       </c>
       <c r="N2">
-        <v>110.169463</v>
+        <v>162.336994</v>
       </c>
       <c r="O2">
-        <v>0.3641786446803374</v>
+        <v>0.4576967561138398</v>
       </c>
       <c r="P2">
-        <v>0.3641786446803374</v>
+        <v>0.4576967561138398</v>
       </c>
       <c r="Q2">
-        <v>283.7766204972999</v>
+        <v>860.1575157498918</v>
       </c>
       <c r="R2">
-        <v>2553.989584475699</v>
+        <v>7741.417641749026</v>
       </c>
       <c r="S2">
-        <v>0.05937100480823217</v>
+        <v>0.1309283552840214</v>
       </c>
       <c r="T2">
-        <v>0.05937100480823217</v>
+        <v>0.1309283552840214</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.727457666666666</v>
+        <v>15.89577633333333</v>
       </c>
       <c r="H3">
-        <v>23.182373</v>
+        <v>47.687329</v>
       </c>
       <c r="I3">
-        <v>0.1630271452636819</v>
+        <v>0.286059172443548</v>
       </c>
       <c r="J3">
-        <v>0.1630271452636819</v>
+        <v>0.2860591724435479</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>183.647235</v>
       </c>
       <c r="O3">
-        <v>0.6070684137000053</v>
+        <v>0.5177793530461455</v>
       </c>
       <c r="P3">
-        <v>0.6070684137000053</v>
+        <v>0.5177793530461455</v>
       </c>
       <c r="Q3">
-        <v>473.0420780209616</v>
+        <v>973.0717905983682</v>
       </c>
       <c r="R3">
-        <v>4257.378702188655</v>
+        <v>8757.646115385314</v>
       </c>
       <c r="S3">
-        <v>0.09896863046526372</v>
+        <v>0.1481155332407361</v>
       </c>
       <c r="T3">
-        <v>0.09896863046526372</v>
+        <v>0.148115533240736</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.727457666666666</v>
+        <v>15.89577633333333</v>
       </c>
       <c r="H4">
-        <v>23.182373</v>
+        <v>47.687329</v>
       </c>
       <c r="I4">
-        <v>0.1630271452636819</v>
+        <v>0.286059172443548</v>
       </c>
       <c r="J4">
-        <v>0.1630271452636819</v>
+        <v>0.2860591724435479</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>8.698193</v>
       </c>
       <c r="O4">
-        <v>0.02875294161965733</v>
+        <v>0.02452389084001462</v>
       </c>
       <c r="P4">
-        <v>0.02875294161965733</v>
+        <v>0.02452389084001462</v>
       </c>
       <c r="Q4">
-        <v>22.40497272799878</v>
+        <v>46.08817681072189</v>
       </c>
       <c r="R4">
-        <v>201.644754551989</v>
+        <v>414.793591296497</v>
       </c>
       <c r="S4">
-        <v>0.004687509990186041</v>
+        <v>0.007015283918790489</v>
       </c>
       <c r="T4">
-        <v>0.004687509990186041</v>
+        <v>0.007015283918790487</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>112.283398</v>
       </c>
       <c r="I5">
-        <v>0.7896189849264272</v>
+        <v>0.6735478078679881</v>
       </c>
       <c r="J5">
-        <v>0.7896189849264271</v>
+        <v>0.673547807867988</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.72315433333333</v>
+        <v>54.11233133333334</v>
       </c>
       <c r="N5">
-        <v>110.169463</v>
+        <v>162.336994</v>
       </c>
       <c r="O5">
-        <v>0.3641786446803374</v>
+        <v>0.4576967561138398</v>
       </c>
       <c r="P5">
-        <v>0.3641786446803374</v>
+        <v>0.4576967561138398</v>
       </c>
       <c r="Q5">
-        <v>1374.46685127503</v>
+        <v>2025.305478602846</v>
       </c>
       <c r="R5">
-        <v>12370.20166147527</v>
+        <v>18227.74930742561</v>
       </c>
       <c r="S5">
-        <v>0.28756237174437</v>
+        <v>0.3082806467487659</v>
       </c>
       <c r="T5">
-        <v>0.28756237174437</v>
+        <v>0.3082806467487659</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>112.283398</v>
       </c>
       <c r="I6">
-        <v>0.7896189849264272</v>
+        <v>0.6735478078679881</v>
       </c>
       <c r="J6">
-        <v>0.7896189849264271</v>
+        <v>0.673547807867988</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>183.647235</v>
       </c>
       <c r="O6">
-        <v>0.6070684137000053</v>
+        <v>0.5177793530461455</v>
       </c>
       <c r="P6">
-        <v>0.6070684137000053</v>
+        <v>0.5177793530461455</v>
       </c>
       <c r="Q6">
         <v>2291.170619900503</v>
@@ -818,10 +818,10 @@
         <v>20620.53557910453</v>
       </c>
       <c r="S6">
-        <v>0.4793527446066946</v>
+        <v>0.3487491482035364</v>
       </c>
       <c r="T6">
-        <v>0.4793527446066945</v>
+        <v>0.3487491482035363</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>112.283398</v>
       </c>
       <c r="I7">
-        <v>0.7896189849264272</v>
+        <v>0.6735478078679881</v>
       </c>
       <c r="J7">
-        <v>0.7896189849264271</v>
+        <v>0.673547807867988</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>8.698193</v>
       </c>
       <c r="O7">
-        <v>0.02875294161965733</v>
+        <v>0.02452389084001462</v>
       </c>
       <c r="P7">
-        <v>0.02875294161965733</v>
+        <v>0.02452389084001462</v>
       </c>
       <c r="Q7">
         <v>108.5180740555349</v>
       </c>
       <c r="R7">
-        <v>976.6626664998139</v>
+        <v>976.662666499814</v>
       </c>
       <c r="S7">
-        <v>0.02270386857536264</v>
+        <v>0.01651801291568568</v>
       </c>
       <c r="T7">
-        <v>0.02270386857536264</v>
+        <v>0.01651801291568568</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>6.733695</v>
       </c>
       <c r="I8">
-        <v>0.04735386980989085</v>
+        <v>0.04039301968846393</v>
       </c>
       <c r="J8">
-        <v>0.04735386980989085</v>
+        <v>0.04039301968846393</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.72315433333333</v>
+        <v>54.11233133333334</v>
       </c>
       <c r="N8">
-        <v>110.169463</v>
+        <v>162.336994</v>
       </c>
       <c r="O8">
-        <v>0.3641786446803374</v>
+        <v>0.4576967561138398</v>
       </c>
       <c r="P8">
-        <v>0.3641786446803374</v>
+        <v>0.4576967561138398</v>
       </c>
       <c r="Q8">
-        <v>82.42750690619835</v>
+        <v>121.4586449792034</v>
       </c>
       <c r="R8">
-        <v>741.847562155785</v>
+        <v>1093.12780481283</v>
       </c>
       <c r="S8">
-        <v>0.0172452681277352</v>
+        <v>0.0184877540810524</v>
       </c>
       <c r="T8">
-        <v>0.0172452681277352</v>
+        <v>0.0184877540810524</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>6.733695</v>
       </c>
       <c r="I9">
-        <v>0.04735386980989085</v>
+        <v>0.04039301968846393</v>
       </c>
       <c r="J9">
-        <v>0.04735386980989085</v>
+        <v>0.04039301968846393</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>183.647235</v>
       </c>
       <c r="O9">
-        <v>0.6070684137000053</v>
+        <v>0.5177793530461455</v>
       </c>
       <c r="P9">
-        <v>0.6070684137000053</v>
+        <v>0.5177793530461455</v>
       </c>
       <c r="Q9">
         <v>137.402718675925</v>
@@ -1004,10 +1004,10 @@
         <v>1236.624468083325</v>
       </c>
       <c r="S9">
-        <v>0.02874703862804701</v>
+        <v>0.02091467160187307</v>
       </c>
       <c r="T9">
-        <v>0.02874703862804701</v>
+        <v>0.02091467160187307</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>6.733695</v>
       </c>
       <c r="I10">
-        <v>0.04735386980989085</v>
+        <v>0.04039301968846393</v>
       </c>
       <c r="J10">
-        <v>0.04735386980989085</v>
+        <v>0.04039301968846393</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>8.698193</v>
       </c>
       <c r="O10">
-        <v>0.02875294161965733</v>
+        <v>0.02452389084001462</v>
       </c>
       <c r="P10">
-        <v>0.02875294161965733</v>
+        <v>0.02452389084001462</v>
       </c>
       <c r="Q10">
         <v>6.507886523681667</v>
@@ -1066,10 +1066,10 @@
         <v>58.570978713135</v>
       </c>
       <c r="S10">
-        <v>0.001361563054108645</v>
+        <v>0.0009905940055384508</v>
       </c>
       <c r="T10">
-        <v>0.001361563054108645</v>
+        <v>0.0009905940055384506</v>
       </c>
     </row>
   </sheetData>
